--- a/data/pca/factorExposure/factorExposure_2018-10-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0530129158725751</v>
+        <v>0.04058723456788208</v>
       </c>
       <c r="C2">
-        <v>-0.06388204034978887</v>
+        <v>-0.002215402399348206</v>
       </c>
       <c r="D2">
-        <v>-0.04616498846043586</v>
+        <v>-0.01330012826719093</v>
       </c>
       <c r="E2">
-        <v>-0.0599530988243691</v>
+        <v>-0.01563245798231865</v>
       </c>
       <c r="F2">
-        <v>-0.1465262655314236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03762129306730078</v>
+      </c>
+      <c r="G2">
+        <v>-0.09165463543112186</v>
+      </c>
+      <c r="H2">
+        <v>-0.02755790098048681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1594619416795469</v>
+        <v>0.09640981446814662</v>
       </c>
       <c r="C3">
-        <v>-0.0256599779693634</v>
+        <v>0.04147346878683525</v>
       </c>
       <c r="D3">
-        <v>-0.06403321236195009</v>
+        <v>-0.04071230248883617</v>
       </c>
       <c r="E3">
-        <v>-0.1107056177618701</v>
+        <v>-0.01220990779825879</v>
       </c>
       <c r="F3">
-        <v>-0.3768726460475675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.01327750797825207</v>
+      </c>
+      <c r="G3">
+        <v>-0.2970197950044303</v>
+      </c>
+      <c r="H3">
+        <v>-0.05816969019204709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05809501787132596</v>
+        <v>0.05035737915731035</v>
       </c>
       <c r="C4">
-        <v>-0.03685224057520185</v>
+        <v>0.008171942185671421</v>
       </c>
       <c r="D4">
-        <v>-0.01919076103042426</v>
+        <v>-0.03523992544958046</v>
       </c>
       <c r="E4">
-        <v>-0.08124199308392967</v>
+        <v>0.01789542435616977</v>
       </c>
       <c r="F4">
-        <v>-0.05721742405195118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06429133371079201</v>
+      </c>
+      <c r="G4">
+        <v>-0.04138106940732509</v>
+      </c>
+      <c r="H4">
+        <v>-0.0325764383726481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0090004960621852</v>
+        <v>0.03156609477571029</v>
       </c>
       <c r="C6">
-        <v>-0.001990982214515467</v>
+        <v>0.004582065108484724</v>
       </c>
       <c r="D6">
-        <v>-0.009118944200981076</v>
+        <v>-0.030088199712783</v>
       </c>
       <c r="E6">
-        <v>-0.00114086358812726</v>
+        <v>0.004234416928845455</v>
       </c>
       <c r="F6">
-        <v>-0.008768459733948899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03218978613581824</v>
+      </c>
+      <c r="G6">
+        <v>-0.001043560783864166</v>
+      </c>
+      <c r="H6">
+        <v>-0.05150495967855507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03059246642960408</v>
+        <v>0.02460816155771583</v>
       </c>
       <c r="C7">
-        <v>-0.01890719144940286</v>
+        <v>0.004352703083938063</v>
       </c>
       <c r="D7">
-        <v>-0.03510498653150992</v>
+        <v>-0.01914375783743502</v>
       </c>
       <c r="E7">
-        <v>-0.03780301730269972</v>
+        <v>0.03523764447751062</v>
       </c>
       <c r="F7">
-        <v>-0.06482646763650164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02677457878068685</v>
+      </c>
+      <c r="G7">
+        <v>-0.03586218919865401</v>
+      </c>
+      <c r="H7">
+        <v>-0.02278390975840977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01565622711996762</v>
+        <v>0.005220431983279671</v>
       </c>
       <c r="C8">
-        <v>-0.01097912175648849</v>
+        <v>0.003475443898679245</v>
       </c>
       <c r="D8">
-        <v>-0.01238987163451836</v>
+        <v>-0.02244045302313287</v>
       </c>
       <c r="E8">
-        <v>-0.07763984953288222</v>
+        <v>0.01145677008860962</v>
       </c>
       <c r="F8">
-        <v>-0.09193553141513633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03042595695140985</v>
+      </c>
+      <c r="G8">
+        <v>-0.05481436360622649</v>
+      </c>
+      <c r="H8">
+        <v>-0.01342342027970071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04779729513945204</v>
+        <v>0.04019165738620795</v>
       </c>
       <c r="C9">
-        <v>-0.03072605568364547</v>
+        <v>0.009999398083186109</v>
       </c>
       <c r="D9">
-        <v>-0.003703054397740158</v>
+        <v>-0.03067462483992786</v>
       </c>
       <c r="E9">
-        <v>-0.08780635734597463</v>
+        <v>0.01751384878644253</v>
       </c>
       <c r="F9">
-        <v>-0.06569961673493725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04379537868039361</v>
+      </c>
+      <c r="G9">
+        <v>-0.06172026823367358</v>
+      </c>
+      <c r="H9">
+        <v>-0.03745295077957575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04316466286551375</v>
+        <v>0.06528905736203054</v>
       </c>
       <c r="C10">
-        <v>-0.05091137485692149</v>
+        <v>0.03266815200786802</v>
       </c>
       <c r="D10">
-        <v>0.05419997513477357</v>
+        <v>0.1591218322789814</v>
       </c>
       <c r="E10">
-        <v>0.142108978713329</v>
+        <v>-0.01651432053618487</v>
       </c>
       <c r="F10">
-        <v>-0.08074841449946869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.08051519051594311</v>
+      </c>
+      <c r="G10">
+        <v>-0.04659414730375271</v>
+      </c>
+      <c r="H10">
+        <v>-0.01324343233820808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03553584886759743</v>
+        <v>0.02430771571853595</v>
       </c>
       <c r="C11">
-        <v>-0.01218463569756608</v>
+        <v>0.01572947466606364</v>
       </c>
       <c r="D11">
-        <v>-0.02144517458100018</v>
+        <v>-0.03323189885172716</v>
       </c>
       <c r="E11">
-        <v>-0.03700259083878436</v>
+        <v>-0.004465402131597128</v>
       </c>
       <c r="F11">
-        <v>-0.03205608696976034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02605774913204583</v>
+      </c>
+      <c r="G11">
+        <v>-0.03117899978601779</v>
+      </c>
+      <c r="H11">
+        <v>-0.03121413149257598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04269117161660874</v>
+        <v>0.03316332585195717</v>
       </c>
       <c r="C12">
-        <v>-0.01216772593722172</v>
+        <v>0.01567612993143448</v>
       </c>
       <c r="D12">
-        <v>-0.01313734271824206</v>
+        <v>-0.03302568570674499</v>
       </c>
       <c r="E12">
-        <v>-0.04931745141312454</v>
+        <v>0.005850213220904662</v>
       </c>
       <c r="F12">
-        <v>-0.01766870687198791</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02763278715072385</v>
+      </c>
+      <c r="G12">
+        <v>-0.005052867565766124</v>
+      </c>
+      <c r="H12">
+        <v>-0.01628265004794691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0305145010146462</v>
+        <v>0.03159422527542568</v>
       </c>
       <c r="C13">
-        <v>-0.02321187079391226</v>
+        <v>-0.005393273596993571</v>
       </c>
       <c r="D13">
-        <v>-0.0399548529414697</v>
+        <v>-0.007148799994098311</v>
       </c>
       <c r="E13">
-        <v>-0.02678522966122186</v>
+        <v>-0.0164022641024995</v>
       </c>
       <c r="F13">
-        <v>-0.093019470808232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02398881405607416</v>
+      </c>
+      <c r="G13">
+        <v>-0.06642134979625716</v>
+      </c>
+      <c r="H13">
+        <v>-0.03167595881642808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01712076993554444</v>
+        <v>0.01862112073932968</v>
       </c>
       <c r="C14">
-        <v>-0.02350160678175242</v>
+        <v>0.005696398474694339</v>
       </c>
       <c r="D14">
-        <v>-0.01423266091975323</v>
+        <v>-0.003548878779343391</v>
       </c>
       <c r="E14">
-        <v>-0.04535196969848285</v>
+        <v>0.007121227482927251</v>
       </c>
       <c r="F14">
-        <v>-0.06090523326017606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03096946865321413</v>
+      </c>
+      <c r="G14">
+        <v>-0.04289672036851808</v>
+      </c>
+      <c r="H14">
+        <v>0.01655613746340584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02781184903758341</v>
+        <v>0.02478359859902831</v>
       </c>
       <c r="C16">
-        <v>-0.01254149237215392</v>
+        <v>0.01586416327481631</v>
       </c>
       <c r="D16">
-        <v>-0.01917219005963702</v>
+        <v>-0.03137895757955206</v>
       </c>
       <c r="E16">
-        <v>-0.03519076327197405</v>
+        <v>0.0002950400690849354</v>
       </c>
       <c r="F16">
-        <v>-0.03198934464783477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02621481786442156</v>
+      </c>
+      <c r="G16">
+        <v>-0.0231327430739887</v>
+      </c>
+      <c r="H16">
+        <v>-0.02359415384864183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04203639247350523</v>
+        <v>0.03408878218203053</v>
       </c>
       <c r="C19">
-        <v>-0.01372143272292937</v>
+        <v>0.008156432757472597</v>
       </c>
       <c r="D19">
-        <v>-0.03411525570547175</v>
+        <v>-0.01725060170695637</v>
       </c>
       <c r="E19">
-        <v>-0.04627932588631044</v>
+        <v>-0.004195719652778746</v>
       </c>
       <c r="F19">
-        <v>-0.09714450795986355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03668002681930728</v>
+      </c>
+      <c r="G19">
+        <v>-0.06794324807981186</v>
+      </c>
+      <c r="H19">
+        <v>-0.04837359560921638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003863948472310909</v>
+        <v>0.01140443084078227</v>
       </c>
       <c r="C20">
-        <v>-0.0185314273072872</v>
+        <v>-0.003816277919751346</v>
       </c>
       <c r="D20">
-        <v>-0.0205152346632474</v>
+        <v>-0.01296175147904576</v>
       </c>
       <c r="E20">
-        <v>-0.05592499226567134</v>
+        <v>0.002343456452999974</v>
       </c>
       <c r="F20">
-        <v>-0.06538957117326873</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.0227796852735367</v>
+      </c>
+      <c r="G20">
+        <v>-0.0535243457143057</v>
+      </c>
+      <c r="H20">
+        <v>0.00694249656923275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.00394160768027438</v>
+        <v>0.02319722749090542</v>
       </c>
       <c r="C21">
-        <v>-0.001136359906762277</v>
+        <v>-0.001157236318158776</v>
       </c>
       <c r="D21">
-        <v>-0.01873474766259624</v>
+        <v>-0.001243854220434819</v>
       </c>
       <c r="E21">
-        <v>-0.03499362650636906</v>
+        <v>0.0106326322734326</v>
       </c>
       <c r="F21">
-        <v>-0.08751831256013949</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01040477299940905</v>
+      </c>
+      <c r="G21">
+        <v>-0.05868890120468399</v>
+      </c>
+      <c r="H21">
+        <v>-0.01755146477967106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03068877769821313</v>
+        <v>0.02506725302520044</v>
       </c>
       <c r="C24">
-        <v>-0.01078175742991476</v>
+        <v>0.010830979047966</v>
       </c>
       <c r="D24">
-        <v>-0.01673642966156912</v>
+        <v>-0.03095177719081268</v>
       </c>
       <c r="E24">
-        <v>-0.03508020362340466</v>
+        <v>0.0004005816547422388</v>
       </c>
       <c r="F24">
-        <v>-0.03586255241963066</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02259214884638199</v>
+      </c>
+      <c r="G24">
+        <v>-0.02526885774024031</v>
+      </c>
+      <c r="H24">
+        <v>-0.03092028004326107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03219739332089694</v>
+        <v>0.03469558250461242</v>
       </c>
       <c r="C25">
-        <v>-0.011812965249987</v>
+        <v>0.01083607484774945</v>
       </c>
       <c r="D25">
-        <v>-0.01382659142665913</v>
+        <v>-0.02391697639217573</v>
       </c>
       <c r="E25">
-        <v>-0.03796154438480586</v>
+        <v>0.001133359699365086</v>
       </c>
       <c r="F25">
-        <v>-0.03696220131603801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02782410005694337</v>
+      </c>
+      <c r="G25">
+        <v>-0.03069738380524563</v>
+      </c>
+      <c r="H25">
+        <v>-0.03432233596854659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02085906797095162</v>
+        <v>0.0220771812863831</v>
       </c>
       <c r="C26">
-        <v>-0.001236296735831089</v>
+        <v>-0.01349601912604767</v>
       </c>
       <c r="D26">
-        <v>-0.04337774642655248</v>
+        <v>-0.01148372714193602</v>
       </c>
       <c r="E26">
-        <v>-0.04191237688006894</v>
+        <v>-0.006091240294257442</v>
       </c>
       <c r="F26">
-        <v>-0.05722006573540149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008765289509985147</v>
+      </c>
+      <c r="G26">
+        <v>-0.03994043170975009</v>
+      </c>
+      <c r="H26">
+        <v>-0.005066080118284944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07879210429684572</v>
+        <v>0.03500225377108351</v>
       </c>
       <c r="C27">
-        <v>-0.05486737714747591</v>
+        <v>0.02247227515050531</v>
       </c>
       <c r="D27">
-        <v>-0.00719355788771899</v>
+        <v>-0.006108854279411433</v>
       </c>
       <c r="E27">
-        <v>-0.05745882430658222</v>
+        <v>0.003158902140433342</v>
       </c>
       <c r="F27">
-        <v>-0.06135326468304796</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03085377528685784</v>
+      </c>
+      <c r="G27">
+        <v>-0.03095176885927912</v>
+      </c>
+      <c r="H27">
+        <v>-0.00233894958540172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06142913431966514</v>
+        <v>0.1021924615870436</v>
       </c>
       <c r="C28">
-        <v>-0.06304420955367751</v>
+        <v>0.03659102757911475</v>
       </c>
       <c r="D28">
-        <v>0.09225746483583194</v>
+        <v>0.2336811841175196</v>
       </c>
       <c r="E28">
-        <v>0.2106469418976184</v>
+        <v>-0.01729078899864815</v>
       </c>
       <c r="F28">
-        <v>-0.08711430858792196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1155923580594338</v>
+      </c>
+      <c r="G28">
+        <v>-0.03096297004916412</v>
+      </c>
+      <c r="H28">
+        <v>0.001665103123900666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0234624314879111</v>
+        <v>0.02233419037249772</v>
       </c>
       <c r="C29">
-        <v>-0.02150699737181505</v>
+        <v>0.007886817985874168</v>
       </c>
       <c r="D29">
-        <v>-0.0117594780650867</v>
+        <v>-0.006262102392609604</v>
       </c>
       <c r="E29">
-        <v>-0.05708016979045601</v>
+        <v>0.007739051281129261</v>
       </c>
       <c r="F29">
-        <v>-0.05109424098005093</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03100740360401853</v>
+      </c>
+      <c r="G29">
+        <v>-0.03657292593902726</v>
+      </c>
+      <c r="H29">
+        <v>0.01393355553752238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08767718883857924</v>
+        <v>0.06499383710055459</v>
       </c>
       <c r="C30">
-        <v>-0.05685364335618417</v>
+        <v>0.01504238138575836</v>
       </c>
       <c r="D30">
-        <v>-0.05168991050026288</v>
+        <v>-0.04905052979920718</v>
       </c>
       <c r="E30">
-        <v>-0.07675523137767296</v>
+        <v>-0.0401234941030696</v>
       </c>
       <c r="F30">
-        <v>-0.07051427466771573</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07289799162142852</v>
+      </c>
+      <c r="G30">
+        <v>-0.06743943411859731</v>
+      </c>
+      <c r="H30">
+        <v>-0.05166442905332417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05769947929416915</v>
+        <v>0.05206314025030329</v>
       </c>
       <c r="C31">
-        <v>-0.01837010534675076</v>
+        <v>0.02657270477551468</v>
       </c>
       <c r="D31">
-        <v>-0.04878073951036852</v>
+        <v>-0.01661076352492401</v>
       </c>
       <c r="E31">
-        <v>-0.02240296640374003</v>
+        <v>-0.01089242355157633</v>
       </c>
       <c r="F31">
-        <v>-0.03262754465460294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02140226851292815</v>
+      </c>
+      <c r="G31">
+        <v>-0.01755322716263394</v>
+      </c>
+      <c r="H31">
+        <v>0.01305496809917452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02322045358099949</v>
+        <v>0.008970584399571499</v>
       </c>
       <c r="C32">
-        <v>-0.02349990870764787</v>
+        <v>0.01745607019427092</v>
       </c>
       <c r="D32">
-        <v>-0.01810431784258179</v>
+        <v>-0.007988043306888409</v>
       </c>
       <c r="E32">
-        <v>-0.09114951370189681</v>
+        <v>0.01780989790456442</v>
       </c>
       <c r="F32">
-        <v>-0.07470759980720784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05033468415433456</v>
+      </c>
+      <c r="G32">
+        <v>-0.04707770748803463</v>
+      </c>
+      <c r="H32">
+        <v>-0.04476940650206766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05199284135233862</v>
+        <v>0.04057317079606367</v>
       </c>
       <c r="C33">
-        <v>-0.007072763305788119</v>
+        <v>0.01050968627823731</v>
       </c>
       <c r="D33">
-        <v>-0.05429711250597237</v>
+        <v>-0.03178965678762146</v>
       </c>
       <c r="E33">
-        <v>-0.05965190449565753</v>
+        <v>-0.02347284836257111</v>
       </c>
       <c r="F33">
-        <v>-0.08496577503943455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01851185398970421</v>
+      </c>
+      <c r="G33">
+        <v>-0.05978255940252337</v>
+      </c>
+      <c r="H33">
+        <v>-0.02512796961588657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03248754247525398</v>
+        <v>0.02605783307129741</v>
       </c>
       <c r="C34">
-        <v>-0.01853004203320006</v>
+        <v>0.02448535138702181</v>
       </c>
       <c r="D34">
-        <v>-0.01886237007701772</v>
+        <v>-0.02761413109043595</v>
       </c>
       <c r="E34">
-        <v>-0.0413338841865576</v>
+        <v>0.004962618331989369</v>
       </c>
       <c r="F34">
-        <v>-0.03770129462583283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02895970994253181</v>
+      </c>
+      <c r="G34">
+        <v>-0.02502538498362406</v>
+      </c>
+      <c r="H34">
+        <v>-0.03080447325705311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01306715152202488</v>
+        <v>0.01832923820563309</v>
       </c>
       <c r="C36">
-        <v>-0.008100416686813229</v>
+        <v>-0.001261821088323427</v>
       </c>
       <c r="D36">
-        <v>-0.005615174058417753</v>
+        <v>0.0007875690215333539</v>
       </c>
       <c r="E36">
-        <v>-0.02833775658090731</v>
+        <v>0.003152159543445404</v>
       </c>
       <c r="F36">
-        <v>-0.03084731427140631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.007106215345652202</v>
+      </c>
+      <c r="G36">
+        <v>-0.02392578890326935</v>
+      </c>
+      <c r="H36">
+        <v>-0.0002839529335148543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.006663587439796914</v>
+        <v>0.01400854858152812</v>
       </c>
       <c r="C38">
-        <v>-0.003918822416212013</v>
+        <v>0.01859854751577983</v>
       </c>
       <c r="D38">
-        <v>0.01326714797994936</v>
+        <v>0.000642995422852525</v>
       </c>
       <c r="E38">
-        <v>-0.004432332568268658</v>
+        <v>0.006663790400512321</v>
       </c>
       <c r="F38">
-        <v>-0.02038115954035592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0137244229241977</v>
+      </c>
+      <c r="G38">
+        <v>-0.03045080461611609</v>
+      </c>
+      <c r="H38">
+        <v>-0.0231924681189197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04022582607776581</v>
+        <v>0.02981028481871613</v>
       </c>
       <c r="C39">
-        <v>-0.02372145610918102</v>
+        <v>0.01230588251814779</v>
       </c>
       <c r="D39">
-        <v>-0.03635997204422447</v>
+        <v>-0.064093663358515</v>
       </c>
       <c r="E39">
-        <v>-0.03927606002461375</v>
+        <v>-0.003942643856206785</v>
       </c>
       <c r="F39">
-        <v>-0.03809142226843778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04791186109619506</v>
+      </c>
+      <c r="G39">
+        <v>-0.04325736528449604</v>
+      </c>
+      <c r="H39">
+        <v>-0.05404898534625794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03760993564777149</v>
+        <v>0.0339954603195146</v>
       </c>
       <c r="C40">
-        <v>-0.04481189837894201</v>
+        <v>0.01069314943686085</v>
       </c>
       <c r="D40">
-        <v>-0.0630259043109845</v>
+        <v>-0.02516712468286918</v>
       </c>
       <c r="E40">
-        <v>-0.04882589652710294</v>
+        <v>-0.02077159705303974</v>
       </c>
       <c r="F40">
-        <v>-0.08302334575949201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04400876870014284</v>
+      </c>
+      <c r="G40">
+        <v>-0.04368115424033281</v>
+      </c>
+      <c r="H40">
+        <v>-0.05542301330315767</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0001887100130290104</v>
+        <v>0.007558683173452483</v>
       </c>
       <c r="C41">
-        <v>0.004967023066779408</v>
+        <v>-5.29306408334921e-05</v>
       </c>
       <c r="D41">
-        <v>-0.01355864084274306</v>
+        <v>0.004850747394389355</v>
       </c>
       <c r="E41">
-        <v>-0.02453839529651933</v>
+        <v>-0.001180048066373868</v>
       </c>
       <c r="F41">
-        <v>-0.02522063512314378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0009121070524294129</v>
+      </c>
+      <c r="G41">
+        <v>-0.01339177193217224</v>
+      </c>
+      <c r="H41">
+        <v>0.01600643975541576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3756652503811604</v>
+        <v>0.2459091991102196</v>
       </c>
       <c r="C42">
-        <v>0.8816551032438971</v>
+        <v>-0.04817265331602174</v>
       </c>
       <c r="D42">
-        <v>-0.1552718203046538</v>
+        <v>-0.5360908728118867</v>
       </c>
       <c r="E42">
-        <v>0.1623172756681281</v>
+        <v>-0.1182232713445259</v>
       </c>
       <c r="F42">
-        <v>0.007928428812122182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7818634340639681</v>
+      </c>
+      <c r="G42">
+        <v>0.07493336266596598</v>
+      </c>
+      <c r="H42">
+        <v>-0.02333188558634286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007818318690028619</v>
+        <v>0.0052574896295838</v>
       </c>
       <c r="C43">
-        <v>0.0007444159058719541</v>
+        <v>-0.002601520593275659</v>
       </c>
       <c r="D43">
-        <v>-0.02054576026092746</v>
+        <v>0.006367003094218148</v>
       </c>
       <c r="E43">
-        <v>-0.02816868335960818</v>
+        <v>-0.005099879973028682</v>
       </c>
       <c r="F43">
-        <v>-0.03734361855189886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.00356887049494337</v>
+      </c>
+      <c r="G43">
+        <v>-0.02023359958977858</v>
+      </c>
+      <c r="H43">
+        <v>0.01102357355296162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02417852363879581</v>
+        <v>0.01458310402392951</v>
       </c>
       <c r="C44">
-        <v>-0.009352136415151228</v>
+        <v>0.003506403696111886</v>
       </c>
       <c r="D44">
-        <v>-0.03670188288629479</v>
+        <v>-0.02616381591496501</v>
       </c>
       <c r="E44">
-        <v>-0.06239537570364406</v>
+        <v>0.001516368530061918</v>
       </c>
       <c r="F44">
-        <v>-0.1865350919394239</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.00962641167853071</v>
+      </c>
+      <c r="G44">
+        <v>-0.0928949290766678</v>
+      </c>
+      <c r="H44">
+        <v>-0.02481125581515999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01903968837926784</v>
+        <v>0.02242687779612063</v>
       </c>
       <c r="C46">
-        <v>-0.0178314600726806</v>
+        <v>0.003724978343394716</v>
       </c>
       <c r="D46">
-        <v>-0.03050865109932772</v>
+        <v>-0.0115569671155763</v>
       </c>
       <c r="E46">
-        <v>-0.05316139951655553</v>
+        <v>-0.005096687715501353</v>
       </c>
       <c r="F46">
-        <v>-0.04781551362324395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03462159667088616</v>
+      </c>
+      <c r="G46">
+        <v>-0.04914018799786102</v>
+      </c>
+      <c r="H46">
+        <v>0.01057988261032124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09622959751747598</v>
+        <v>0.07314850169175995</v>
       </c>
       <c r="C47">
-        <v>-0.03642328226056817</v>
+        <v>0.04825913024844363</v>
       </c>
       <c r="D47">
-        <v>-0.03169832283189385</v>
+        <v>-0.02015113635042407</v>
       </c>
       <c r="E47">
-        <v>-0.04092490989625368</v>
+        <v>-0.007849328708019507</v>
       </c>
       <c r="F47">
-        <v>-0.0008178353501901987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03307985299087207</v>
+      </c>
+      <c r="G47">
+        <v>0.01245921991523363</v>
+      </c>
+      <c r="H47">
+        <v>0.02896887351428728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01216302981671622</v>
+        <v>0.01758111826426762</v>
       </c>
       <c r="C48">
-        <v>-0.007777984062398106</v>
+        <v>0.009426800277886047</v>
       </c>
       <c r="D48">
-        <v>-0.02164928339565694</v>
+        <v>-0.006829355100933209</v>
       </c>
       <c r="E48">
-        <v>-0.04306384642045605</v>
+        <v>-0.001034307126603841</v>
       </c>
       <c r="F48">
-        <v>-0.04824030926898745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0135873844318307</v>
+      </c>
+      <c r="G48">
+        <v>-0.03019687130942876</v>
+      </c>
+      <c r="H48">
+        <v>-0.006451896175737081</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09110370200197368</v>
+        <v>0.06881912142450276</v>
       </c>
       <c r="C50">
-        <v>-0.02075605996400326</v>
+        <v>0.04247104495661957</v>
       </c>
       <c r="D50">
-        <v>-0.04595653409124892</v>
+        <v>-0.03643090565517505</v>
       </c>
       <c r="E50">
-        <v>-0.04659849889622571</v>
+        <v>0.005711688402861024</v>
       </c>
       <c r="F50">
-        <v>-0.01671553768856393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03031641883340695</v>
+      </c>
+      <c r="G50">
+        <v>-0.01809658799363992</v>
+      </c>
+      <c r="H50">
+        <v>0.02371747947020395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04620953835877568</v>
+        <v>0.02785125233259321</v>
       </c>
       <c r="C51">
-        <v>-0.0006839090128470524</v>
+        <v>0.006468914127836492</v>
       </c>
       <c r="D51">
-        <v>-0.04867895506129887</v>
+        <v>0.002189878265291275</v>
       </c>
       <c r="E51">
-        <v>-0.01037744216626749</v>
+        <v>-0.01428564896795265</v>
       </c>
       <c r="F51">
-        <v>-0.164914132868889</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01391081807046928</v>
+      </c>
+      <c r="G51">
+        <v>-0.09214634989719282</v>
+      </c>
+      <c r="H51">
+        <v>-0.03369999376056559</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1101896273974089</v>
+        <v>0.09623757092852676</v>
       </c>
       <c r="C53">
-        <v>-0.04171177769266771</v>
+        <v>0.06253111021590445</v>
       </c>
       <c r="D53">
-        <v>-0.05690589448661187</v>
+        <v>-0.0471411594222784</v>
       </c>
       <c r="E53">
-        <v>-0.0546171334680012</v>
+        <v>-0.006745628325184943</v>
       </c>
       <c r="F53">
-        <v>0.06641873342798842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05896061077460107</v>
+      </c>
+      <c r="G53">
+        <v>0.05923726017943542</v>
+      </c>
+      <c r="H53">
+        <v>0.03555772430050053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02467483148979991</v>
+        <v>0.02249222675854181</v>
       </c>
       <c r="C54">
-        <v>-0.0382960237664265</v>
+        <v>0.01820657440790805</v>
       </c>
       <c r="D54">
-        <v>-0.01194417060676023</v>
+        <v>0.02206253425744149</v>
       </c>
       <c r="E54">
-        <v>-0.03403954390743533</v>
+        <v>0.002289025740631833</v>
       </c>
       <c r="F54">
-        <v>-0.07255969559683491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01714067046792414</v>
+      </c>
+      <c r="G54">
+        <v>-0.04777449044602924</v>
+      </c>
+      <c r="H54">
+        <v>0.01951106974410351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1047051433844065</v>
+        <v>0.08314925698720373</v>
       </c>
       <c r="C55">
-        <v>-0.02782593107308792</v>
+        <v>0.05441814554884626</v>
       </c>
       <c r="D55">
-        <v>-0.006517229168617007</v>
+        <v>-0.04325348878094429</v>
       </c>
       <c r="E55">
-        <v>-0.05172511602237655</v>
+        <v>0.005912598037064652</v>
       </c>
       <c r="F55">
-        <v>0.05797837137792657</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0447563146663897</v>
+      </c>
+      <c r="G55">
+        <v>0.03856864041577356</v>
+      </c>
+      <c r="H55">
+        <v>0.05128404081629502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1466533839796385</v>
+        <v>0.1246152196414151</v>
       </c>
       <c r="C56">
-        <v>-0.0727887418737321</v>
+        <v>0.0881665683590882</v>
       </c>
       <c r="D56">
-        <v>-0.03365488540334997</v>
+        <v>-0.05663149078328124</v>
       </c>
       <c r="E56">
-        <v>-0.06440018068336176</v>
+        <v>-0.001695641956950665</v>
       </c>
       <c r="F56">
-        <v>0.1626274144194307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08309422101246994</v>
+      </c>
+      <c r="G56">
+        <v>0.1044861391931412</v>
+      </c>
+      <c r="H56">
+        <v>0.02958466043049998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04651337960593199</v>
+        <v>0.04433480470998342</v>
       </c>
       <c r="C57">
-        <v>-0.02173149127599202</v>
+        <v>0.0007455412047570594</v>
       </c>
       <c r="D57">
-        <v>-0.03917372826755581</v>
+        <v>-0.02529221079908488</v>
       </c>
       <c r="E57">
-        <v>-0.0280954497299217</v>
+        <v>-0.01390539280318231</v>
       </c>
       <c r="F57">
-        <v>-0.07853076146449467</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03026890747056509</v>
+      </c>
+      <c r="G57">
+        <v>-0.06741780863499547</v>
+      </c>
+      <c r="H57">
+        <v>-0.01808765905565637</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.221099461315719</v>
+        <v>0.1636185795924422</v>
       </c>
       <c r="C58">
-        <v>-0.06890799117637322</v>
+        <v>0.08844374745510108</v>
       </c>
       <c r="D58">
-        <v>-0.1304531100518233</v>
+        <v>-0.1178090583590068</v>
       </c>
       <c r="E58">
-        <v>-0.1276901199562162</v>
+        <v>-0.1270341930291305</v>
       </c>
       <c r="F58">
-        <v>-0.269918835070891</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05844126053185546</v>
+      </c>
+      <c r="G58">
+        <v>-0.6631630964448939</v>
+      </c>
+      <c r="H58">
+        <v>0.5472176008146876</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.06538313529682867</v>
+        <v>0.1057122659455736</v>
       </c>
       <c r="C59">
-        <v>-0.08731519312560637</v>
+        <v>0.04657782798231185</v>
       </c>
       <c r="D59">
-        <v>0.07012136166083026</v>
+        <v>0.2231480578623979</v>
       </c>
       <c r="E59">
-        <v>0.1522998533093059</v>
+        <v>-0.03175337093753368</v>
       </c>
       <c r="F59">
-        <v>-0.05598447818901137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08543950864610307</v>
+      </c>
+      <c r="G59">
+        <v>-0.03084721929665927</v>
+      </c>
+      <c r="H59">
+        <v>-0.02468628008705056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1668991001777537</v>
+        <v>0.1643594563606927</v>
       </c>
       <c r="C60">
-        <v>-0.07940399269544722</v>
+        <v>0.07510734399318877</v>
       </c>
       <c r="D60">
-        <v>-0.04626729381376452</v>
+        <v>0.01145414006686997</v>
       </c>
       <c r="E60">
-        <v>0.03693272116463902</v>
+        <v>-0.05669801382294181</v>
       </c>
       <c r="F60">
-        <v>-0.08893168399559696</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05993068952231585</v>
+      </c>
+      <c r="G60">
+        <v>-0.1080229009022132</v>
+      </c>
+      <c r="H60">
+        <v>-0.3566786124946034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02204270503756305</v>
+        <v>0.02474753306021535</v>
       </c>
       <c r="C61">
-        <v>-0.01203672543083349</v>
+        <v>0.0142107743239432</v>
       </c>
       <c r="D61">
-        <v>-0.01177734387857887</v>
+        <v>-0.03536954478579649</v>
       </c>
       <c r="E61">
-        <v>-0.03073156616355733</v>
+        <v>0.001796401664773432</v>
       </c>
       <c r="F61">
-        <v>-0.03433270853274184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03408680918763878</v>
+      </c>
+      <c r="G61">
+        <v>-0.02828981530646661</v>
+      </c>
+      <c r="H61">
+        <v>-0.0398105448786966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02209858907019159</v>
+        <v>0.01695517859675085</v>
       </c>
       <c r="C63">
-        <v>-0.01943883912005646</v>
+        <v>0.003707433612871703</v>
       </c>
       <c r="D63">
-        <v>-0.02672458712661804</v>
+        <v>-0.01143989981582588</v>
       </c>
       <c r="E63">
-        <v>-0.04751853567115479</v>
+        <v>0.0001648976212645574</v>
       </c>
       <c r="F63">
-        <v>-0.02386078790559688</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02612157641614402</v>
+      </c>
+      <c r="G63">
+        <v>-0.02266208249130032</v>
+      </c>
+      <c r="H63">
+        <v>0.00514745026928473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05257982887042319</v>
+        <v>0.04807035114042543</v>
       </c>
       <c r="C64">
-        <v>-0.01861427001929394</v>
+        <v>0.02488579218086788</v>
       </c>
       <c r="D64">
-        <v>-0.01583594909596746</v>
+        <v>-0.04221428542918347</v>
       </c>
       <c r="E64">
-        <v>-0.08672206369630815</v>
+        <v>0.008497809627120982</v>
       </c>
       <c r="F64">
-        <v>-0.04200234901844225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03452231569521953</v>
+      </c>
+      <c r="G64">
+        <v>-0.0185399171502346</v>
+      </c>
+      <c r="H64">
+        <v>-0.03414837069329453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.008799197315805052</v>
+        <v>0.03663555891200809</v>
       </c>
       <c r="C65">
-        <v>-0.0003668348732861069</v>
+        <v>0.005228363553607997</v>
       </c>
       <c r="D65">
-        <v>-0.007483816624851081</v>
+        <v>-0.03327507962330095</v>
       </c>
       <c r="E65">
-        <v>0.001942860785206114</v>
+        <v>0.004029466652106743</v>
       </c>
       <c r="F65">
-        <v>-0.005747033916906055</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03199141474639946</v>
+      </c>
+      <c r="G65">
+        <v>0.006937591715813389</v>
+      </c>
+      <c r="H65">
+        <v>-0.05992461439255691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04407113507365194</v>
+        <v>0.0377206115092873</v>
       </c>
       <c r="C66">
-        <v>-0.03177345412783045</v>
+        <v>0.02048998713614034</v>
       </c>
       <c r="D66">
-        <v>-0.03739890583766775</v>
+        <v>-0.07286352839956689</v>
       </c>
       <c r="E66">
-        <v>-0.05776450152028429</v>
+        <v>-0.01096669886938183</v>
       </c>
       <c r="F66">
-        <v>-0.04166542659757777</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07030972600574784</v>
+      </c>
+      <c r="G66">
+        <v>-0.03843687843393111</v>
+      </c>
+      <c r="H66">
+        <v>-0.06689476664201578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02712181030389829</v>
+        <v>0.03302653724730362</v>
       </c>
       <c r="C67">
-        <v>-0.0123480070228196</v>
+        <v>0.02555563016930123</v>
       </c>
       <c r="D67">
-        <v>0.01713360644565219</v>
+        <v>0.01017826380695116</v>
       </c>
       <c r="E67">
-        <v>0.01595572771644619</v>
+        <v>0.00171658809685969</v>
       </c>
       <c r="F67">
-        <v>-0.03010573352299221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01425522247071325</v>
+      </c>
+      <c r="G67">
+        <v>-0.02094566106886809</v>
+      </c>
+      <c r="H67">
+        <v>-0.03580650720078588</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0725926100544417</v>
+        <v>0.1075837356522116</v>
       </c>
       <c r="C68">
-        <v>-0.07147251660752774</v>
+        <v>0.02354531862066342</v>
       </c>
       <c r="D68">
-        <v>0.1029225471806389</v>
+        <v>0.2182680181015694</v>
       </c>
       <c r="E68">
-        <v>0.2112411436592292</v>
+        <v>-0.02683362845800197</v>
       </c>
       <c r="F68">
-        <v>-0.03560532396592226</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.110135189940225</v>
+      </c>
+      <c r="G68">
+        <v>-0.02697074003721813</v>
+      </c>
+      <c r="H68">
+        <v>0.0451754833153198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07186894653662247</v>
+        <v>0.0574896553692331</v>
       </c>
       <c r="C69">
-        <v>-0.03684989188846418</v>
+        <v>0.04284276737906612</v>
       </c>
       <c r="D69">
-        <v>-0.0240401137565282</v>
+        <v>-0.01476877116299803</v>
       </c>
       <c r="E69">
-        <v>-0.00566421590872637</v>
+        <v>-0.008078399529783613</v>
       </c>
       <c r="F69">
-        <v>-0.01636684132106243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0285914297934214</v>
+      </c>
+      <c r="G69">
+        <v>0.002156957815149031</v>
+      </c>
+      <c r="H69">
+        <v>0.0085353034174351</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08452314807208743</v>
+        <v>0.1038423780106882</v>
       </c>
       <c r="C71">
-        <v>-0.07107066988690847</v>
+        <v>0.03260278971124008</v>
       </c>
       <c r="D71">
-        <v>0.08169115244573467</v>
+        <v>0.203299257496711</v>
       </c>
       <c r="E71">
-        <v>0.2447123681633817</v>
+        <v>-0.03064745500302881</v>
       </c>
       <c r="F71">
-        <v>-0.06528766424085808</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.117421763119095</v>
+      </c>
+      <c r="G71">
+        <v>-0.02965902310008231</v>
+      </c>
+      <c r="H71">
+        <v>0.01898159915709273</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1069928909544718</v>
+        <v>0.08838779310750623</v>
       </c>
       <c r="C72">
-        <v>-0.1165840669219431</v>
+        <v>0.06746765037871616</v>
       </c>
       <c r="D72">
-        <v>-0.02495571333042051</v>
+        <v>-0.04762198835151162</v>
       </c>
       <c r="E72">
-        <v>-0.05693147368441081</v>
+        <v>-0.01315107875259643</v>
       </c>
       <c r="F72">
-        <v>-0.04422338714463214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1183332021725507</v>
+      </c>
+      <c r="G72">
+        <v>-0.06916933643693024</v>
+      </c>
+      <c r="H72">
+        <v>-0.1469670728115451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2376241401206546</v>
+        <v>0.2290054491316353</v>
       </c>
       <c r="C73">
-        <v>-0.1094124510066602</v>
+        <v>0.09901520027955595</v>
       </c>
       <c r="D73">
-        <v>-0.0236513834590204</v>
+        <v>-0.003953016487030064</v>
       </c>
       <c r="E73">
-        <v>0.09670331531916745</v>
+        <v>-0.09014113868171797</v>
       </c>
       <c r="F73">
-        <v>-0.171857468517314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06269220681322353</v>
+      </c>
+      <c r="G73">
+        <v>-0.1528062184562028</v>
+      </c>
+      <c r="H73">
+        <v>-0.5113905606743434</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1262617882625911</v>
+        <v>0.1111953966213585</v>
       </c>
       <c r="C74">
-        <v>-0.03864313821898892</v>
+        <v>0.07784263427306801</v>
       </c>
       <c r="D74">
-        <v>-0.03243600950947388</v>
+        <v>-0.05378608265826055</v>
       </c>
       <c r="E74">
-        <v>-0.03087627336494915</v>
+        <v>-0.009029185060628261</v>
       </c>
       <c r="F74">
-        <v>0.1141571899920387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06566543103113788</v>
+      </c>
+      <c r="G74">
+        <v>0.0897910178999911</v>
+      </c>
+      <c r="H74">
+        <v>0.003610218861268103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2270501298439608</v>
+        <v>0.2188632296156799</v>
       </c>
       <c r="C75">
-        <v>-0.1101676801873913</v>
+        <v>0.1546435771392213</v>
       </c>
       <c r="D75">
-        <v>-0.07114605670800754</v>
+        <v>-0.06041870776477408</v>
       </c>
       <c r="E75">
-        <v>-0.04299903889591703</v>
+        <v>-0.03472503818670723</v>
       </c>
       <c r="F75">
-        <v>0.1759101406753215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.124053791143459</v>
+      </c>
+      <c r="G75">
+        <v>0.1629922690930355</v>
+      </c>
+      <c r="H75">
+        <v>0.09332952406366342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2640714046099412</v>
+        <v>0.2107257317416988</v>
       </c>
       <c r="C76">
-        <v>-0.12872691056858</v>
+        <v>0.1534614017757421</v>
       </c>
       <c r="D76">
-        <v>-0.01233944480563308</v>
+        <v>-0.06242070086784896</v>
       </c>
       <c r="E76">
-        <v>-0.0554597859273273</v>
+        <v>0.008406871357223844</v>
       </c>
       <c r="F76">
-        <v>0.2095686889126129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.134524958099885</v>
+      </c>
+      <c r="G76">
+        <v>0.1814486319628503</v>
+      </c>
+      <c r="H76">
+        <v>0.1043261206489221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1420202764125073</v>
+        <v>0.08195736819418319</v>
       </c>
       <c r="C77">
-        <v>0.01169905472245485</v>
+        <v>0.03059908229346015</v>
       </c>
       <c r="D77">
-        <v>-0.06849756552121473</v>
+        <v>-0.07275177087583344</v>
       </c>
       <c r="E77">
-        <v>-0.05951690607678841</v>
+        <v>-0.0152286784215782</v>
       </c>
       <c r="F77">
-        <v>-0.2126028016408128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.003648468830478052</v>
+      </c>
+      <c r="G77">
+        <v>-0.1310214447383723</v>
+      </c>
+      <c r="H77">
+        <v>0.04699689957375235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05688975997463445</v>
+        <v>0.04043279417909238</v>
       </c>
       <c r="C78">
-        <v>-0.01230227236280784</v>
+        <v>0.02168053192467202</v>
       </c>
       <c r="D78">
-        <v>-0.04243347917737663</v>
+        <v>-0.05315417695859181</v>
       </c>
       <c r="E78">
-        <v>-0.08961592949755995</v>
+        <v>0.002632609367886186</v>
       </c>
       <c r="F78">
-        <v>-0.03055148435150609</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04584644781033948</v>
+      </c>
+      <c r="G78">
+        <v>-0.04711534439647019</v>
+      </c>
+      <c r="H78">
+        <v>-0.0363545696574018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1942971024803752</v>
+        <v>0.1725663295082219</v>
       </c>
       <c r="C80">
-        <v>0.1539644429710088</v>
+        <v>0.08904821808492476</v>
       </c>
       <c r="D80">
-        <v>0.8637433385779569</v>
+        <v>-0.01379154277743406</v>
       </c>
       <c r="E80">
-        <v>-0.4075872690394637</v>
+        <v>0.9607486000332291</v>
       </c>
       <c r="F80">
-        <v>-0.0428519744493784</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1044734356091143</v>
+      </c>
+      <c r="G80">
+        <v>-0.1033603237261795</v>
+      </c>
+      <c r="H80">
+        <v>-0.009350978473746538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1597565647954258</v>
+        <v>0.1483990474678751</v>
       </c>
       <c r="C81">
-        <v>-0.09709749704091584</v>
+        <v>0.1052449473198953</v>
       </c>
       <c r="D81">
-        <v>-0.0288422842483048</v>
+        <v>-0.03953299412793797</v>
       </c>
       <c r="E81">
-        <v>-0.03865298171249058</v>
+        <v>-0.008580506108360978</v>
       </c>
       <c r="F81">
-        <v>0.1967996650073799</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09361456154552167</v>
+      </c>
+      <c r="G81">
+        <v>0.1220017656232666</v>
+      </c>
+      <c r="H81">
+        <v>0.08204847707521472</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05559574799634916</v>
+        <v>0.04060682396223425</v>
       </c>
       <c r="C83">
-        <v>0.008084421332029443</v>
+        <v>0.01769534811301873</v>
       </c>
       <c r="D83">
-        <v>-0.04656233035226508</v>
+        <v>-0.02596188251472227</v>
       </c>
       <c r="E83">
-        <v>-0.03898311787504764</v>
+        <v>-0.01412532232774138</v>
       </c>
       <c r="F83">
-        <v>-0.07997384630327958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01445805290451668</v>
+      </c>
+      <c r="G83">
+        <v>-0.05771559989532708</v>
+      </c>
+      <c r="H83">
+        <v>-0.02382874043275461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2354195505733728</v>
+        <v>0.2111769078865635</v>
       </c>
       <c r="C85">
-        <v>-0.09017591419409937</v>
+        <v>0.1359650928655185</v>
       </c>
       <c r="D85">
-        <v>-0.03832312964024666</v>
+        <v>-0.08116848748377499</v>
       </c>
       <c r="E85">
-        <v>-0.03555046644188111</v>
+        <v>-0.02200676271364253</v>
       </c>
       <c r="F85">
-        <v>0.1953117373588447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.117003371177245</v>
+      </c>
+      <c r="G85">
+        <v>0.1701667959003221</v>
+      </c>
+      <c r="H85">
+        <v>0.06663031268464052</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006572830822983254</v>
+        <v>0.01002272394176566</v>
       </c>
       <c r="C86">
-        <v>-0.0003710555245596026</v>
+        <v>-0.000168087026797784</v>
       </c>
       <c r="D86">
-        <v>-0.02642531001090173</v>
+        <v>-0.02166857621777673</v>
       </c>
       <c r="E86">
-        <v>-0.08420283504438184</v>
+        <v>-0.006501045554474436</v>
       </c>
       <c r="F86">
-        <v>-0.0843151363201995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01893084130413406</v>
+      </c>
+      <c r="G86">
+        <v>-0.08353674535793042</v>
+      </c>
+      <c r="H86">
+        <v>-0.04722993788541983</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02254703459964998</v>
+        <v>0.02724086666642736</v>
       </c>
       <c r="C87">
-        <v>-0.02135284365863225</v>
+        <v>0.008648131314996985</v>
       </c>
       <c r="D87">
-        <v>0.00493956654529601</v>
+        <v>-0.01373447902260617</v>
       </c>
       <c r="E87">
-        <v>0.001866053111308658</v>
+        <v>-0.0008006684841899188</v>
       </c>
       <c r="F87">
-        <v>-0.07997648735186171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01520382888812358</v>
+      </c>
+      <c r="G87">
+        <v>-0.08565335429091449</v>
+      </c>
+      <c r="H87">
+        <v>-0.03253186626033958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01215851277897417</v>
+        <v>0.0390277037042823</v>
       </c>
       <c r="C88">
-        <v>-0.01881222826507336</v>
+        <v>-0.002254984967507553</v>
       </c>
       <c r="D88">
-        <v>0.01610391340164694</v>
+        <v>0.01107939699595603</v>
       </c>
       <c r="E88">
-        <v>-0.008039600918073285</v>
+        <v>0.005477927946978179</v>
       </c>
       <c r="F88">
-        <v>-0.04076696289152779</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01533931632617165</v>
+      </c>
+      <c r="G88">
+        <v>-0.002165078846365831</v>
+      </c>
+      <c r="H88">
+        <v>-0.01647528924023516</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09910311096846504</v>
+        <v>0.165359950228497</v>
       </c>
       <c r="C89">
-        <v>-0.08971117763834346</v>
+        <v>0.04763599932707014</v>
       </c>
       <c r="D89">
-        <v>0.1033205077112298</v>
+        <v>0.345520330061313</v>
       </c>
       <c r="E89">
-        <v>0.3106050521633487</v>
+        <v>-0.06636014540556963</v>
       </c>
       <c r="F89">
-        <v>-0.1227543927586931</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1656711885998036</v>
+      </c>
+      <c r="G89">
+        <v>-0.02421009062178144</v>
+      </c>
+      <c r="H89">
+        <v>0.01871755893501266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0948884044999093</v>
+        <v>0.1284653142558812</v>
       </c>
       <c r="C90">
-        <v>-0.08408411601947392</v>
+        <v>0.03625838802441862</v>
       </c>
       <c r="D90">
-        <v>0.1491854607068056</v>
+        <v>0.298179369473187</v>
       </c>
       <c r="E90">
-        <v>0.2678578637436513</v>
+        <v>-0.03717133083619318</v>
       </c>
       <c r="F90">
-        <v>-0.07353050526233261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1560236959096717</v>
+      </c>
+      <c r="G90">
+        <v>0.013924118244368</v>
+      </c>
+      <c r="H90">
+        <v>0.04133746837056385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2918325884974298</v>
+        <v>0.2321745863727466</v>
       </c>
       <c r="C91">
-        <v>-0.0954121043893071</v>
+        <v>0.1609091854888354</v>
       </c>
       <c r="D91">
-        <v>-0.05136245209529796</v>
+        <v>-0.07192033671026227</v>
       </c>
       <c r="E91">
-        <v>0.005341573603233004</v>
+        <v>-0.02848789747530139</v>
       </c>
       <c r="F91">
-        <v>0.2464408389537945</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1154699636252387</v>
+      </c>
+      <c r="G91">
+        <v>0.2222055701035511</v>
+      </c>
+      <c r="H91">
+        <v>0.1253487018095389</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1417412768146257</v>
+        <v>0.1881318126143991</v>
       </c>
       <c r="C92">
-        <v>-0.06606652776803887</v>
+        <v>0.1203764786136915</v>
       </c>
       <c r="D92">
-        <v>0.1715183491075093</v>
+        <v>0.2734460123687438</v>
       </c>
       <c r="E92">
-        <v>0.2913876504760115</v>
+        <v>-0.02706139743102027</v>
       </c>
       <c r="F92">
-        <v>-0.1050423477132986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1365484118410269</v>
+      </c>
+      <c r="G92">
+        <v>0.02316301181060298</v>
+      </c>
+      <c r="H92">
+        <v>0.1328128290953679</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0999293516620563</v>
+        <v>0.1485860171156274</v>
       </c>
       <c r="C93">
-        <v>-0.06739083201075224</v>
+        <v>0.04911181789013461</v>
       </c>
       <c r="D93">
-        <v>0.1763461328691755</v>
+        <v>0.3280700967936365</v>
       </c>
       <c r="E93">
-        <v>0.3754125664009252</v>
+        <v>-0.05485508706706071</v>
       </c>
       <c r="F93">
-        <v>-0.0471916232538818</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1998824317807035</v>
+      </c>
+      <c r="G93">
+        <v>0.01895161126236129</v>
+      </c>
+      <c r="H93">
+        <v>-0.01589587904107031</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.261180222418887</v>
+        <v>0.2502710656457678</v>
       </c>
       <c r="C94">
-        <v>-0.1232338173579362</v>
+        <v>0.1519373617055847</v>
       </c>
       <c r="D94">
-        <v>-0.0178900773982387</v>
+        <v>-0.04601191893128805</v>
       </c>
       <c r="E94">
-        <v>-0.02556504413842967</v>
+        <v>-0.04074683661009135</v>
       </c>
       <c r="F94">
-        <v>0.3152491058993899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1291961083368796</v>
+      </c>
+      <c r="G94">
+        <v>0.2416250981647303</v>
+      </c>
+      <c r="H94">
+        <v>0.133502646657671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1094763693445773</v>
+        <v>0.0752366660328229</v>
       </c>
       <c r="C95">
-        <v>-0.01502151990426511</v>
+        <v>0.05550171000570783</v>
       </c>
       <c r="D95">
-        <v>-0.1035563389852809</v>
+        <v>-0.07871575600048736</v>
       </c>
       <c r="E95">
-        <v>-0.09292637526584265</v>
+        <v>-0.07827349264341478</v>
       </c>
       <c r="F95">
-        <v>-0.06912527540066488</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03268391534852864</v>
+      </c>
+      <c r="G95">
+        <v>-0.07746828951745491</v>
+      </c>
+      <c r="H95">
+        <v>-0.0164932736256585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1821267814291531</v>
+        <v>0.1666521329876343</v>
       </c>
       <c r="C98">
-        <v>-0.05397978557784545</v>
+        <v>0.1052424918726463</v>
       </c>
       <c r="D98">
-        <v>-0.02254841810391251</v>
+        <v>-0.006104822219112804</v>
       </c>
       <c r="E98">
-        <v>0.09589337878119598</v>
+        <v>-0.06271117816209218</v>
       </c>
       <c r="F98">
-        <v>-0.0711302429507979</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01946844648784197</v>
+      </c>
+      <c r="G98">
+        <v>-0.1332937162603955</v>
+      </c>
+      <c r="H98">
+        <v>-0.363379398622081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00901643836139367</v>
+        <v>0.01587539554068897</v>
       </c>
       <c r="C101">
-        <v>-0.02699315586586269</v>
+        <v>0.004687984995681524</v>
       </c>
       <c r="D101">
-        <v>-0.03567784764302574</v>
+        <v>-0.009518909413495027</v>
       </c>
       <c r="E101">
-        <v>-0.1040231094934721</v>
+        <v>0.003032383645874058</v>
       </c>
       <c r="F101">
-        <v>-0.1600815005638582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0400324610802612</v>
+      </c>
+      <c r="G101">
+        <v>-0.09759417557856613</v>
+      </c>
+      <c r="H101">
+        <v>0.06550136950972069</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1043606146547325</v>
+        <v>0.109851960637712</v>
       </c>
       <c r="C102">
-        <v>-0.03039977216552133</v>
+        <v>0.06305306948081357</v>
       </c>
       <c r="D102">
-        <v>-0.0279598417089119</v>
+        <v>-0.04607228996116471</v>
       </c>
       <c r="E102">
-        <v>-0.07070724256591122</v>
+        <v>-0.004788025465854803</v>
       </c>
       <c r="F102">
-        <v>0.1319247925016412</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06563278500271937</v>
+      </c>
+      <c r="G102">
+        <v>0.1012623031488511</v>
+      </c>
+      <c r="H102">
+        <v>0.06439368339091957</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02638127185412799</v>
+        <v>0.02247591511329708</v>
       </c>
       <c r="C103">
-        <v>-0.009684201617512839</v>
+        <v>0.01396155713495982</v>
       </c>
       <c r="D103">
-        <v>-0.007600454345434871</v>
+        <v>-0.01089862280853106</v>
       </c>
       <c r="E103">
-        <v>-0.007065565107074517</v>
+        <v>0.006505938559180516</v>
       </c>
       <c r="F103">
-        <v>0.02581363783541396</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.0156455840749991</v>
+      </c>
+      <c r="G103">
+        <v>0.0107982940276768</v>
+      </c>
+      <c r="H103">
+        <v>0.008556752273249589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.4527855854186901</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.868111532803415</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.03484421965991603</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02158432670486405</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.166883131220294</v>
+      </c>
+      <c r="G104">
+        <v>0.04291342604479217</v>
+      </c>
+      <c r="H104">
+        <v>0.03519579177569266</v>
       </c>
     </row>
   </sheetData>
